--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="172">
   <si>
     <t>Result</t>
   </si>
@@ -528,6 +528,21 @@
   </si>
   <si>
     <t>Fri Mar 14 07:52:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:15:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:17:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:19:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:21:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:23:42 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1050,7 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
@@ -1333,7 +1348,7 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>102</v>
@@ -1595,7 +1610,7 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>119</v>
@@ -1714,7 +1729,7 @@
         <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>119</v>
@@ -1833,7 +1848,7 @@
         <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>119</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5B753E19-AC6B-464C-BFB5-2B8C536529D3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D63203EC-2B4E-4745-92C4-5366CD808779}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="CreateModifyDeleteProfile" r:id="rId1" sheetId="1"/>
@@ -27,26 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="172">
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="172">
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>AppIDQA</t>
-  </si>
-  <si>
-    <t>AppNameQA</t>
-  </si>
-  <si>
     <t>AppIDDemo</t>
   </si>
   <si>
@@ -185,12 +170,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>a_Access AutoNoCFtp</t>
-  </si>
-  <si>
     <t>4249</t>
   </si>
   <si>
@@ -431,118 +410,139 @@
     <t>Ross Corp Mod</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:15:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:17:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:19:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:21:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 01:23:42 IST 2025</t>
+  </si>
+  <si>
+    <t>ResultProd</t>
+  </si>
+  <si>
+    <t>DateProd</t>
+  </si>
+  <si>
+    <t>ResultDemo</t>
+  </si>
+  <si>
+    <t>DateDemo</t>
+  </si>
+  <si>
+    <t>ExecuteProd</t>
+  </si>
+  <si>
+    <t>ExecuteDemo</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>Wed Apr 16 18:58:44 IST 2025</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Thu Feb 27 18:59:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 19:03:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 07:36:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 07:38:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:01:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:03:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:05:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:07:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:09:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 08:11:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:33:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:36:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:39:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:40:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 06 00:42:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 03:17:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 03:19:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 03:21:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 03:23:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 03:25:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:19:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:21:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:23:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:25:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Mar 13 22:28:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:44:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:46:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:48:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:50:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 14 07:52:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:15:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:17:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:19:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:21:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 01:23:42 IST 2025</t>
+    <t>Wed Apr 16 21:03:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 16 21:07:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 16 21:10:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 21:44:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:08:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:09:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:11:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:27:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:28:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 00:30:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:09:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:11:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:24:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:35:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:37:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:40:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:53:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:56:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:57:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 19:59:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 20:13:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 30 20:26:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:16:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:17:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:19:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:20:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 19:21:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 20:26:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 20:27:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 01 20:29:00 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -879,322 +879,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+    </row>
+    <row ht="86.4" r="2" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row ht="86.4" r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AW2" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1207,262 +1210,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE003A9-015F-4019-B3A4-BC91F3755137}">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J2"/>
+      <selection activeCell="H1" sqref="H1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="57.6" r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row ht="57.6" r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1472,494 +1478,497 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C451C5-0490-4FE9-A49C-7BA5D775F32A}">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="43.2" r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row ht="57.6" r="2" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row ht="57.6" r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="AM3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row ht="57.6" r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="T4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AD4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AK4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AM4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row ht="57.6" r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row ht="57.6" r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="204">
   <si>
     <t>Notes</t>
   </si>
@@ -543,6 +543,102 @@
   </si>
   <si>
     <t>Thu May 01 20:29:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:01:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:02:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:03:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:04:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:05:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:06:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:07:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:08:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:51:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:52:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:53:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 21:59:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 07 22:10:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:04:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:05:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:06:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:07:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 15 22:08:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 08:22:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 08:45:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 09:08:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 09:31:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 09:54:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:35:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:36:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:37:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:39:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 14:42:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:52:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:53:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:54:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed May 21 15:57:03 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1149,10 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
@@ -1354,10 +1450,10 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>95</v>
@@ -1619,7 +1715,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1738,7 +1834,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -1857,7 +1953,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="210">
   <si>
     <t>Notes</t>
   </si>
@@ -639,6 +639,24 @@
   </si>
   <si>
     <t>Wed May 21 15:57:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:03:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:04:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:05:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:06:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:08:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:15:11 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1167,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1450,7 +1468,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1715,7 +1733,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1834,7 +1852,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -1953,7 +1971,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="220">
   <si>
     <t>Notes</t>
   </si>
@@ -639,6 +639,54 @@
   </si>
   <si>
     <t>Wed May 21 15:57:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:03:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:04:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:05:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:06:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 18:08:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 19 19:15:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:25:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:26:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:27:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:29:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 28 19:32:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:42:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:44:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:45:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:49:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 20:51:46 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1194,10 @@
     </row>
     <row ht="86.4" r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1447,10 +1495,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1712,10 +1760,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1831,10 +1879,10 @@
     </row>
     <row ht="57.6" r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -1950,10 +1998,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="251">
   <si>
     <t>Notes</t>
   </si>
@@ -687,6 +687,99 @@
   </si>
   <si>
     <t>Mon Aug 04 20:51:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:39:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:41:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:42:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:43:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:44:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:37:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:39:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:42:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 20:59:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:01:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:03:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:06:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:07:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:09:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:17:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:19:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:21:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:25:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 21:30:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:11:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:13:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:15:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:18:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:32:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 11 19:42:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:49:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:50:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:51:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:52:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 01:53:59 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1290,7 @@
         <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1498,7 +1591,7 @@
         <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1763,7 +1856,7 @@
         <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1882,7 +1975,7 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2001,7 +2094,7 @@
         <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="261">
   <si>
     <t>Notes</t>
   </si>
@@ -780,6 +780,36 @@
   </si>
   <si>
     <t>Tue Aug 12 01:53:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:14:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:15:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:16:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 20 23:18:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:01:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:02:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:04:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:05:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 23:06:45 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1317,10 @@
     </row>
     <row ht="86.4" r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1588,10 +1618,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1853,10 +1883,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1972,10 +2002,10 @@
     </row>
     <row ht="57.6" r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2091,10 +2121,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="271">
   <si>
     <t>Notes</t>
   </si>
@@ -810,6 +810,36 @@
   </si>
   <si>
     <t>Fri Aug 22 23:06:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:49:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:50:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:52:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:53:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 27 22:54:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:51:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:52:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:54:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:55:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 07:56:37 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1350,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1621,7 +1651,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1886,7 +1916,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -2005,7 +2035,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2124,7 +2154,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="276">
   <si>
     <t>Notes</t>
   </si>
@@ -840,6 +840,21 @@
   </si>
   <si>
     <t>Thu Aug 28 07:56:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:35:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:37:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:38:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:39:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 06:40:50 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1365,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1651,7 +1666,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1916,7 +1931,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -2035,7 +2050,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2154,7 +2169,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="294">
   <si>
     <t>Notes</t>
   </si>
@@ -855,6 +855,60 @@
   </si>
   <si>
     <t>Thu Sep 04 06:40:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:38:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:39:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:40:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:42:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 22:43:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 19:20:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:22:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:24:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:25:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:28:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:30:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:32:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:33:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:34:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:43:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 16:44:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 19:47:06 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1419,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1666,7 +1720,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1931,7 +1985,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -2050,7 +2104,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2169,7 +2223,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>

--- a/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
+++ b/KatalonData/Bootstrap/VSP-Data-Prod.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="311">
   <si>
     <t>Notes</t>
   </si>
@@ -909,6 +909,57 @@
   </si>
   <si>
     <t>Tue Nov 11 19:47:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:56:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:57:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 07:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:00:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 08:01:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:30:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:31:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:33:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:34:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 15:35:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:27:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:29:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:30:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:32:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:35:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:01:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 22:03:13 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1470,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1720,7 +1771,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -1985,7 +2036,7 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -2104,7 +2155,7 @@
         <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2223,7 +2274,7 @@
         <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
